--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_100.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_100.xlsx
@@ -61,6 +61,9 @@
     <t>Days with no interaction</t>
   </si>
   <si>
+    <t>Number of clicks</t>
+  </si>
+  <si>
     <t>Total time online (min)</t>
   </si>
   <si>
@@ -70,19 +73,7 @@
     <t>Links viewed</t>
   </si>
   <si>
-    <t>Number of clicks</t>
-  </si>
-  <si>
     <t>Start of Session 10 (%)</t>
-  </si>
-  <si>
-    <t>Number of sessions</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Clicks (% of course total)</t>
@@ -94,46 +85,52 @@
     <t>Clicks on folder</t>
   </si>
   <si>
-    <t>Start of Session 2 (%)</t>
+    <t>Number of sessions</t>
+  </si>
+  <si>
+    <t>Days with no interaction (%)</t>
   </si>
   <si>
     <t>Average session duration (min)</t>
   </si>
   <si>
+    <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
     <t>Assignments submitted</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
+    <t>Number of days</t>
+  </si>
+  <si>
+    <t>Submissions (% of course total)</t>
   </si>
   <si>
     <t>Clicks per day</t>
   </si>
   <si>
-    <t>Start of Session 3 (%)</t>
+    <t>Start of Session 6 (%)</t>
   </si>
   <si>
-    <t>Assignments viewed</t>
+    <t>Quizzes started</t>
   </si>
   <si>
-    <t>Submissions (% of course total)</t>
-  </si>
-  <si>
-    <t>Number of days</t>
+    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Forum posts</t>
   </si>
   <si>
-    <t>Quizzes started</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 6 (%)</t>
-  </si>
-  <si>
-    <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
+    <t>Start of Session 9 (%)</t>
   </si>
   <si>
     <t>Discussions viewed</t>
@@ -142,10 +139,13 @@
     <t>Start of Session 4 (%)</t>
   </si>
   <si>
-    <t>Start of Session 9 (%)</t>
+    <t>Start of Session 5 (%)</t>
   </si>
   <si>
     <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
+    <t>Files downloaded</t>
   </si>
 </sst>
 </file>
@@ -712,13 +712,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -744,13 +744,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -773,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -834,7 +834,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -849,16 +849,16 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -901,10 +901,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -945,13 +945,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -965,10 +965,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -997,25 +997,25 @@
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -1026,16 +1026,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1061,28 +1061,28 @@
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1125,25 +1125,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -1154,7 +1154,7 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -1288,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2092,22 +2092,22 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -2124,19 +2124,19 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -2156,10 +2156,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -2168,19 +2168,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -2188,48 +2188,48 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -2247,18 +2247,18 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -2267,30 +2267,30 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -2311,12 +2311,12 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -2343,15 +2343,15 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -2380,16 +2380,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -2398,13 +2398,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -2412,13 +2412,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -2430,13 +2430,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -2444,13 +2444,13 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -2462,21 +2462,21 @@
         <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2549,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2596,15 +2596,15 @@
         <v>1</v>
       </c>
       <c r="I31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2937,10 +2937,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -2964,12 +2964,12 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3106,22 +3106,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -3129,48 +3129,48 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -3193,31 +3193,31 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>4</v>
@@ -3225,13 +3225,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>4</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -3289,10 +3289,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -3301,27 +3301,27 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -3365,19 +3365,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>3</v>
@@ -3385,16 +3385,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -3449,16 +3449,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -3481,10 +3481,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -3508,12 +3508,12 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3919,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -3937,12 +3937,12 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -3951,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -3969,21 +3969,21 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -4006,16 +4006,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -4038,22 +4038,22 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4111,30 +4111,30 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4143,36 +4143,36 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -4193,27 +4193,27 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4294,13 +4294,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4329,74 +4329,74 @@
         <v>15</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -4417,12 +4417,12 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -4454,13 +4454,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -4472,13 +4472,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>3</v>
@@ -4486,16 +4486,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -4504,13 +4504,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -4518,16 +4518,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -4545,21 +4545,21 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -4582,13 +4582,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -4614,16 +4614,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -4673,12 +4673,12 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4687,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -4705,18 +4705,18 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -4737,12 +4737,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_100.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_100.xlsx
@@ -49,6 +49,9 @@
     <t>Feature</t>
   </si>
   <si>
+    <t>Days with no interaction</t>
+  </si>
+  <si>
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
@@ -56,12 +59,6 @@
   </si>
   <si>
     <t>Clicks on course</t>
-  </si>
-  <si>
-    <t>Days with no interaction</t>
-  </si>
-  <si>
-    <t>Number of clicks</t>
   </si>
   <si>
     <t>Total time online (min)</t>
@@ -73,7 +70,7 @@
     <t>Links viewed</t>
   </si>
   <si>
-    <t>Start of Session 10 (%)</t>
+    <t>Number of clicks</t>
   </si>
   <si>
     <t>Clicks (% of course total)</t>
@@ -97,7 +94,13 @@
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
-    <t>Start of Session 3 (%)</t>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
+    <t>Clicks per day</t>
+  </si>
+  <si>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Assignments submitted</t>
@@ -106,25 +109,25 @@
     <t>Assignments viewed</t>
   </si>
   <si>
-    <t>Clicks on forum</t>
+    <t>Submissions (% of course total)</t>
+  </si>
+  <si>
+    <t>Start of Session 3 (%)</t>
   </si>
   <si>
     <t>Number of days</t>
   </si>
   <si>
-    <t>Submissions (% of course total)</t>
-  </si>
-  <si>
-    <t>Clicks per day</t>
+    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
-    <t>Quizzes started</t>
+    <t>Start of Session 5 (%)</t>
   </si>
   <si>
-    <t>Start of Session 8 (%)</t>
+    <t>Quizzes started</t>
   </si>
   <si>
     <t>Forum posts</t>
@@ -137,9 +140,6 @@
   </si>
   <si>
     <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
   </si>
   <si>
     <t>Start of Session 7 (%)</t>
@@ -712,13 +712,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -744,13 +744,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -773,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -805,25 +805,25 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>5</v>
@@ -869,25 +869,25 @@
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -898,19 +898,19 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -930,13 +930,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -945,13 +945,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -965,10 +965,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -997,7 +997,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1006,16 +1006,16 @@
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -1058,28 +1058,28 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -1282,7 +1282,7 @@
         <v>33</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1320,13 +1320,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1932,16 +1932,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -1950,13 +1950,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -1964,22 +1964,22 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -2023,12 +2023,12 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2040,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2092,13 +2092,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2124,10 +2124,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -2136,19 +2136,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -2156,48 +2156,48 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -2220,16 +2220,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -2252,71 +2252,71 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -2343,18 +2343,18 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -2407,12 +2407,12 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -2430,30 +2430,30 @@
         <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2517,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2549,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -2567,12 +2567,12 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2596,15 +2596,15 @@
         <v>1</v>
       </c>
       <c r="I31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2850,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -2868,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2937,16 +2937,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -2969,13 +2969,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -2996,12 +2996,12 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3106,10 +3106,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -3141,19 +3141,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -3161,63 +3161,63 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>4</v>
@@ -3225,16 +3225,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -3269,19 +3269,19 @@
         <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -3417,16 +3417,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -3449,16 +3449,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -3481,10 +3481,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -3508,12 +3508,12 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -3983,13 +3983,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4038,10 +4038,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -4065,12 +4065,12 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4111,30 +4111,30 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4143,36 +4143,36 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -4193,27 +4193,27 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4294,13 +4294,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4329,74 +4329,74 @@
         <v>15</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -4417,12 +4417,12 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -4454,13 +4454,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -4472,13 +4472,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>3</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -4518,13 +4518,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -4536,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -4550,16 +4550,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -4582,13 +4582,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -4614,16 +4614,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -4673,12 +4673,12 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4687,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -4705,18 +4705,18 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -4737,12 +4737,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_100.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_100.xlsx
@@ -49,9 +49,6 @@
     <t>Feature</t>
   </si>
   <si>
-    <t>Days with no interaction</t>
-  </si>
-  <si>
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
@@ -61,10 +58,7 @@
     <t>Clicks on course</t>
   </si>
   <si>
-    <t>Total time online (min)</t>
-  </si>
-  <si>
-    <t>Start of Session 1 (%)</t>
+    <t>Days with no interaction</t>
   </si>
   <si>
     <t>Links viewed</t>
@@ -73,16 +67,25 @@
     <t>Number of clicks</t>
   </si>
   <si>
+    <t>Total time online (min)</t>
+  </si>
+  <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
+    <t>Number of sessions</t>
+  </si>
+  <si>
+    <t>Start of Session 10 (%)</t>
+  </si>
+  <si>
     <t>Clicks (% of course total)</t>
   </si>
   <si>
     <t>Clicks per session</t>
   </si>
   <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Number of sessions</t>
+    <t>Assignments viewed</t>
   </si>
   <si>
     <t>Days with no interaction (%)</t>
@@ -91,7 +94,16 @@
     <t>Average session duration (min)</t>
   </si>
   <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
     <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
+    <t>Assignments submitted</t>
+  </si>
+  <si>
+    <t>Start of Session 3 (%)</t>
   </si>
   <si>
     <t>Clicks on forum</t>
@@ -100,25 +112,10 @@
     <t>Clicks per day</t>
   </si>
   <si>
-    <t>Start of Session 10 (%)</t>
-  </si>
-  <si>
-    <t>Assignments submitted</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
     <t>Submissions (% of course total)</t>
   </si>
   <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
     <t>Number of days</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Start of Session 6 (%)</t>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Quizzes started</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Forum posts</t>
@@ -709,16 +709,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -730,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -762,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -776,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -817,16 +817,16 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -837,25 +837,25 @@
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -869,25 +869,25 @@
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -898,10 +898,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -913,13 +913,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -939,19 +939,19 @@
         <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -965,10 +965,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -997,7 +997,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1006,16 +1006,16 @@
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -1026,13 +1026,13 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -1070,16 +1070,16 @@
         <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1195,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -1282,7 +1282,7 @@
         <v>33</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>34</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1349,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1799,12 +1799,12 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1813,13 +1813,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1848,10 +1848,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1877,10 +1877,10 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -1900,16 +1900,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -1932,13 +1932,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -1973,22 +1973,22 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -2023,18 +2023,18 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2092,31 +2092,31 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2124,31 +2124,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -2156,48 +2156,48 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -2220,31 +2220,31 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -2279,44 +2279,44 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -2343,12 +2343,12 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2380,13 +2380,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -2404,10 +2404,10 @@
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2444,16 +2444,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -2476,13 +2476,13 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -2508,13 +2508,13 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2564,15 +2564,15 @@
         <v>1</v>
       </c>
       <c r="I30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -2599,12 +2599,12 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2850,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -2868,12 +2868,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2882,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2900,21 +2900,21 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -2937,16 +2937,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -2969,13 +2969,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -2996,12 +2996,12 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3106,10 +3106,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -3141,19 +3141,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -3161,31 +3161,31 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>4</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -3269,19 +3269,19 @@
         <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4111,25 +4111,25 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4172,25 +4172,25 @@
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -4198,13 +4198,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -4216,13 +4216,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -4230,31 +4230,31 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -4262,13 +4262,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -4280,13 +4280,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -4294,13 +4294,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -4321,44 +4321,44 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -4454,13 +4454,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -4472,13 +4472,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>3</v>
@@ -4486,16 +4486,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4527,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -4536,30 +4536,30 @@
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -4582,16 +4582,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -4614,16 +4614,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -4673,12 +4673,12 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_100.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_100.xlsx
@@ -49,6 +49,9 @@
     <t>Feature</t>
   </si>
   <si>
+    <t>Days with no interaction</t>
+  </si>
+  <si>
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
@@ -58,22 +61,28 @@
     <t>Clicks on course</t>
   </si>
   <si>
-    <t>Days with no interaction</t>
-  </si>
-  <si>
-    <t>Links viewed</t>
-  </si>
-  <si>
     <t>Number of clicks</t>
   </si>
   <si>
     <t>Total time online (min)</t>
   </si>
   <si>
+    <t>Links viewed</t>
+  </si>
+  <si>
+    <t>Number of sessions</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
     <t>Start of Session 1 (%)</t>
   </si>
   <si>
-    <t>Number of sessions</t>
+    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Start of Session 10 (%)</t>
@@ -82,55 +91,46 @@
     <t>Clicks (% of course total)</t>
   </si>
   <si>
+    <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
+    <t>Average session duration (min)</t>
+  </si>
+  <si>
     <t>Clicks per session</t>
   </si>
   <si>
     <t>Assignments viewed</t>
   </si>
   <si>
-    <t>Days with no interaction (%)</t>
+    <t>Submissions (% of course total)</t>
   </si>
   <si>
-    <t>Average session duration (min)</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Start of Session 2 (%)</t>
+    <t>Start of Session 3 (%)</t>
   </si>
   <si>
     <t>Assignments submitted</t>
   </si>
   <si>
-    <t>Start of Session 3 (%)</t>
+    <t>Start of Session 8 (%)</t>
   </si>
   <si>
-    <t>Clicks on forum</t>
+    <t>Start of Session 5 (%)</t>
   </si>
   <si>
     <t>Clicks per day</t>
   </si>
   <si>
-    <t>Submissions (% of course total)</t>
+    <t>Number of days</t>
   </si>
   <si>
-    <t>Number of days</t>
+    <t>Forum posts</t>
   </si>
   <si>
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
     <t>Quizzes started</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
-    <t>Forum posts</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
@@ -139,13 +139,13 @@
     <t>Discussions viewed</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
+    <t>Files downloaded</t>
   </si>
   <si>
     <t>Start of Session 7 (%)</t>
   </si>
   <si>
-    <t>Files downloaded</t>
+    <t>Start of Session 4 (%)</t>
   </si>
 </sst>
 </file>
@@ -709,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -762,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -773,16 +773,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -802,19 +802,19 @@
         <v>18</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -837,28 +837,28 @@
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -872,25 +872,25 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -930,19 +930,19 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -965,10 +965,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -994,7 +994,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -1006,16 +1006,16 @@
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -1026,31 +1026,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1058,10 +1058,10 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -1070,19 +1070,19 @@
         <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -1114,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1192,25 +1192,25 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1218,10 +1218,10 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -1233,13 +1233,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -1250,10 +1250,10 @@
         <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1314,7 +1314,7 @@
         <v>34</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -1329,16 +1329,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1799,12 +1799,12 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1813,13 +1813,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1848,10 +1848,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1900,16 +1900,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -1927,18 +1927,18 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -1964,10 +1964,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1976,19 +1976,19 @@
         <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -2023,18 +2023,18 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2092,31 +2092,31 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -2232,19 +2232,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -2252,39 +2252,39 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -2311,7 +2311,7 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2348,7 +2348,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2380,13 +2380,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -2404,15 +2404,15 @@
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2444,16 +2444,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -2476,13 +2476,13 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -2599,12 +2599,12 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2937,10 +2937,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -2964,12 +2964,12 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3065,16 +3065,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3106,10 +3106,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -3129,13 +3129,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -3144,16 +3144,16 @@
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -3161,31 +3161,31 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -3193,16 +3193,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -3225,31 +3225,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>4</v>
@@ -3260,28 +3260,28 @@
         <v>22</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -3385,16 +3385,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -3417,16 +3417,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -3951,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -3969,12 +3969,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -3983,13 +3983,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -4006,16 +4006,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -4038,22 +4038,22 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -4065,12 +4065,12 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -4198,13 +4198,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -4216,13 +4216,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -4230,31 +4230,31 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -4262,13 +4262,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -4280,13 +4280,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -4321,44 +4321,44 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -4454,13 +4454,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -4472,13 +4472,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>3</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4527,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -4536,30 +4536,30 @@
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4614,16 +4614,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -4710,7 +4710,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_100.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_no_assign_feature_selection_Date_threshold_100.xlsx
@@ -67,28 +67,25 @@
     <t>Total time online (min)</t>
   </si>
   <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
     <t>Links viewed</t>
   </si>
   <si>
     <t>Number of sessions</t>
   </si>
   <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
     <t>Days with no interaction (%)</t>
   </si>
   <si>
-    <t>Start of Session 1 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
+    <t>Clicks (% of course total)</t>
   </si>
   <si>
     <t>Start of Session 10 (%)</t>
   </si>
   <si>
-    <t>Clicks (% of course total)</t>
+    <t>Clicks per session</t>
   </si>
   <si>
     <t>Start of Session 2 (%)</t>
@@ -97,28 +94,25 @@
     <t>Average session duration (min)</t>
   </si>
   <si>
-    <t>Clicks per session</t>
+    <t>Assignments viewed</t>
   </si>
   <si>
-    <t>Assignments viewed</t>
+    <t>Assignments submitted</t>
+  </si>
+  <si>
+    <t>Clicks per day</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
   </si>
   <si>
     <t>Submissions (% of course total)</t>
   </si>
   <si>
     <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Assignments submitted</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Clicks per day</t>
   </si>
   <si>
     <t>Number of days</t>
@@ -133,7 +127,13 @@
     <t>Quizzes started</t>
   </si>
   <si>
+    <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
     <t>Start of Session 9 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Discussions viewed</t>
@@ -744,13 +744,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -802,19 +802,19 @@
         <v>18</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -872,25 +872,25 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -898,7 +898,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -930,7 +930,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -939,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -971,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -994,7 +994,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -1006,16 +1006,16 @@
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -1026,28 +1026,28 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -1058,31 +1058,31 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1096,25 +1096,25 @@
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1218,10 +1218,10 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -1233,13 +1233,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -1250,10 +1250,10 @@
         <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -1288,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1326,19 +1326,19 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1378,7 +1378,7 @@
         <v>36</v>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>37</v>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1799,12 +1799,12 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1813,13 +1813,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1848,10 +1848,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -1927,12 +1927,12 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1964,10 +1964,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1976,19 +1976,19 @@
         <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -1996,10 +1996,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -2011,16 +2011,16 @@
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2124,19 +2124,19 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2194,25 +2194,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -2220,16 +2220,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -2264,19 +2264,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2348,13 +2348,13 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
@@ -2407,12 +2407,12 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2453,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2508,13 +2508,13 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>2</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2549,13 +2549,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2882,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2900,12 +2900,12 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2937,16 +2937,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -2964,12 +2964,12 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3016,24 +3016,24 @@
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3065,16 +3065,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -3097,31 +3097,31 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -3129,13 +3129,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -3144,56 +3144,56 @@
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -3205,19 +3205,19 @@
         <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>4</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>4</v>
@@ -3257,31 +3257,31 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -3289,10 +3289,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -3301,27 +3301,27 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -3353,13 +3353,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -3371,13 +3371,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>3</v>
@@ -3385,10 +3385,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -3403,30 +3403,30 @@
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -3508,12 +3508,12 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4111,30 +4111,30 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4166,31 +4166,31 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4294,19 +4294,19 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -4486,13 +4486,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -4504,13 +4504,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4527,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -4536,21 +4536,21 @@
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -4582,16 +4582,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
